--- a/data/pca/factorExposure/factorExposure_2012-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001497263265326951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002034193611055988</v>
+      </c>
+      <c r="C2">
+        <v>-0.0301717240418628</v>
+      </c>
+      <c r="D2">
+        <v>0.006305234094154587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001289888849640974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006854877076204104</v>
+      </c>
+      <c r="C4">
+        <v>-0.08313547082184901</v>
+      </c>
+      <c r="D4">
+        <v>0.07540840352463295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001269574427015516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01366748486043923</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131348638581567</v>
+      </c>
+      <c r="D6">
+        <v>0.02337460141917302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002236364666295799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00474400787478666</v>
+      </c>
+      <c r="C7">
+        <v>-0.05814281367009332</v>
+      </c>
+      <c r="D7">
+        <v>0.03194060124526393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.157865445656076e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005896570129407614</v>
+      </c>
+      <c r="C8">
+        <v>-0.03664630759507457</v>
+      </c>
+      <c r="D8">
+        <v>0.03925285338177086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003878211252678245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005042525668837266</v>
+      </c>
+      <c r="C9">
+        <v>-0.07114366189386513</v>
+      </c>
+      <c r="D9">
+        <v>0.07493622827416233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002218652465800397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006172722788329744</v>
+      </c>
+      <c r="C10">
+        <v>-0.05692049984774133</v>
+      </c>
+      <c r="D10">
+        <v>-0.1948065342957656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004527926028159572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005456104733720272</v>
+      </c>
+      <c r="C11">
+        <v>-0.07955384063871269</v>
+      </c>
+      <c r="D11">
+        <v>0.06377131830408765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001582176845269527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003898559554815516</v>
+      </c>
+      <c r="C12">
+        <v>-0.06396170937875978</v>
+      </c>
+      <c r="D12">
+        <v>0.05017980398552956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001867001757852974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008999510625263342</v>
+      </c>
+      <c r="C13">
+        <v>-0.07000979542186651</v>
+      </c>
+      <c r="D13">
+        <v>0.05749538848865838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.00230412281607986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001011003876150348</v>
+      </c>
+      <c r="C14">
+        <v>-0.04394740826913239</v>
+      </c>
+      <c r="D14">
+        <v>0.005736989708347774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0008932720229075121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00590781049288798</v>
+      </c>
+      <c r="C15">
+        <v>-0.04128098886123147</v>
+      </c>
+      <c r="D15">
+        <v>0.0285485365835027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002398811187989151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004865029379069641</v>
+      </c>
+      <c r="C16">
+        <v>-0.06393751440349717</v>
+      </c>
+      <c r="D16">
+        <v>0.05499301017381124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004792734480540018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00879036920636125</v>
+      </c>
+      <c r="C20">
+        <v>-0.0660326999995913</v>
+      </c>
+      <c r="D20">
+        <v>0.04634631483963912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005781771393641707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009837331206334071</v>
+      </c>
+      <c r="C21">
+        <v>-0.02114263844826071</v>
+      </c>
+      <c r="D21">
+        <v>0.03955621547412907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0171071356196273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006361518754340129</v>
+      </c>
+      <c r="C22">
+        <v>-0.09234959062983562</v>
+      </c>
+      <c r="D22">
+        <v>0.1204683726640132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01741159701382492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006166601482682914</v>
+      </c>
+      <c r="C23">
+        <v>-0.09311202079660637</v>
+      </c>
+      <c r="D23">
+        <v>0.1204575355628487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003644027021971274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005370355405441085</v>
+      </c>
+      <c r="C24">
+        <v>-0.07562759506670717</v>
+      </c>
+      <c r="D24">
+        <v>0.06748395503969118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005849770518934091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003106755223958236</v>
+      </c>
+      <c r="C25">
+        <v>-0.07800428404383097</v>
+      </c>
+      <c r="D25">
+        <v>0.06524765603629511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004032283408609938</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003538589024567679</v>
+      </c>
+      <c r="C26">
+        <v>-0.03889857408784406</v>
+      </c>
+      <c r="D26">
+        <v>0.02409129887529067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007516601277264238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007698391433044326</v>
+      </c>
+      <c r="C28">
+        <v>-0.1054262692597065</v>
+      </c>
+      <c r="D28">
+        <v>-0.3239911357477923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001331558064160265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002745417071076403</v>
+      </c>
+      <c r="C29">
+        <v>-0.04957980765157915</v>
+      </c>
+      <c r="D29">
+        <v>0.006635896843654197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005238007227725546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01006061321491544</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430814928149926</v>
+      </c>
+      <c r="D30">
+        <v>0.106966003454393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003067024997641674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006282612297526985</v>
+      </c>
+      <c r="C31">
+        <v>-0.04408131419435764</v>
+      </c>
+      <c r="D31">
+        <v>0.02947167549259169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008351756269387939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003638375200322977</v>
+      </c>
+      <c r="C32">
+        <v>-0.03998700399392836</v>
+      </c>
+      <c r="D32">
+        <v>0.02593315764325459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003635154838383987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008581488649374537</v>
+      </c>
+      <c r="C33">
+        <v>-0.0869228616048295</v>
+      </c>
+      <c r="D33">
+        <v>0.0668900222211193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005206516777521118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00399438330983085</v>
+      </c>
+      <c r="C34">
+        <v>-0.05786921070887842</v>
+      </c>
+      <c r="D34">
+        <v>0.05635517783201417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0005183115270918767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005129985896103467</v>
+      </c>
+      <c r="C35">
+        <v>-0.04088245825920491</v>
+      </c>
+      <c r="D35">
+        <v>0.01897772760381342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00453629365495635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001090745461178804</v>
+      </c>
+      <c r="C36">
+        <v>-0.02499354857421425</v>
+      </c>
+      <c r="D36">
+        <v>0.02363971683392875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001061377641172141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.008821058283729437</v>
+      </c>
+      <c r="C38">
+        <v>-0.03497661237270869</v>
+      </c>
+      <c r="D38">
+        <v>0.01584346422768659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01359575531840744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001114632359068485</v>
+      </c>
+      <c r="C39">
+        <v>-0.1149275267686501</v>
+      </c>
+      <c r="D39">
+        <v>0.0785777760053724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.00939899022020387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003571401577772884</v>
+      </c>
+      <c r="C40">
+        <v>-0.09077557958965139</v>
+      </c>
+      <c r="D40">
+        <v>0.01349658208157094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008036253899596102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.006950765660280197</v>
+      </c>
+      <c r="C41">
+        <v>-0.03645435500776271</v>
+      </c>
+      <c r="D41">
+        <v>0.03767753352448087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003820216124861543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003832350132799596</v>
+      </c>
+      <c r="C43">
+        <v>-0.05286004020198092</v>
+      </c>
+      <c r="D43">
+        <v>0.02615983348501188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01582445154764534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.002931299366564575</v>
+      </c>
+      <c r="C44">
+        <v>-0.107209732640395</v>
+      </c>
+      <c r="D44">
+        <v>0.06649266842971768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0008310141115838689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002122606066050025</v>
+      </c>
+      <c r="C46">
+        <v>-0.0328558274988811</v>
+      </c>
+      <c r="D46">
+        <v>0.03231304395683057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002152285710496252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002223948747470545</v>
+      </c>
+      <c r="C47">
+        <v>-0.03631635674523944</v>
+      </c>
+      <c r="D47">
+        <v>0.01949613113239343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004038668593962665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006732003919430364</v>
+      </c>
+      <c r="C48">
+        <v>-0.03051562731567737</v>
+      </c>
+      <c r="D48">
+        <v>0.03540989812866566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.012761183770324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01657861877833131</v>
+      </c>
+      <c r="C49">
+        <v>-0.1865458800880273</v>
+      </c>
+      <c r="D49">
+        <v>0.01399262846344147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002018555711130346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00358821277334093</v>
+      </c>
+      <c r="C50">
+        <v>-0.04274261401247026</v>
+      </c>
+      <c r="D50">
+        <v>0.03650053212133347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>8.205776579795609e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004754022497467919</v>
+      </c>
+      <c r="C51">
+        <v>-0.02548905978267115</v>
+      </c>
+      <c r="D51">
+        <v>0.02172579656919196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001016080484248231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02096130088978823</v>
+      </c>
+      <c r="C53">
+        <v>-0.1694968932961617</v>
+      </c>
+      <c r="D53">
+        <v>0.02672434385362332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.00161438302933119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008799306840739447</v>
+      </c>
+      <c r="C54">
+        <v>-0.05446455269617789</v>
+      </c>
+      <c r="D54">
+        <v>0.04475369183828285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005666550067263903</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009534905645578526</v>
+      </c>
+      <c r="C55">
+        <v>-0.109417847471733</v>
+      </c>
+      <c r="D55">
+        <v>0.0397662398674951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001781315488543595</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01993145821530296</v>
+      </c>
+      <c r="C56">
+        <v>-0.1757980947496442</v>
+      </c>
+      <c r="D56">
+        <v>0.01384491599433358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009815052357242166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01954795543073308</v>
+      </c>
+      <c r="C58">
+        <v>-0.1098448976661992</v>
+      </c>
+      <c r="D58">
+        <v>0.06471762026661448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009446985426272335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01018706703951695</v>
+      </c>
+      <c r="C59">
+        <v>-0.1638861794574238</v>
+      </c>
+      <c r="D59">
+        <v>-0.3338818228138146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005769941005921765</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02529044287848538</v>
+      </c>
+      <c r="C60">
+        <v>-0.225689850569127</v>
+      </c>
+      <c r="D60">
+        <v>0.02517332697545947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01527119987077032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001857312392605834</v>
+      </c>
+      <c r="C61">
+        <v>-0.09489165123464388</v>
+      </c>
+      <c r="D61">
+        <v>0.05736278125696814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1586962883157214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1482388839806916</v>
+      </c>
+      <c r="C62">
+        <v>-0.09563882754958594</v>
+      </c>
+      <c r="D62">
+        <v>0.03076222391697172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.000685856235522845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006674476288384125</v>
+      </c>
+      <c r="C63">
+        <v>-0.05434967374169412</v>
+      </c>
+      <c r="D63">
+        <v>0.02828319075246941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008985103685387211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01539485505750696</v>
+      </c>
+      <c r="C64">
+        <v>-0.1034716017669195</v>
+      </c>
+      <c r="D64">
+        <v>0.06134458999944815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001711213028268903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01789935378204169</v>
+      </c>
+      <c r="C65">
+        <v>-0.12351535020771</v>
+      </c>
+      <c r="D65">
+        <v>0.02095040916596034</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007893948224213654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01314707886552529</v>
+      </c>
+      <c r="C66">
+        <v>-0.1591772392151378</v>
+      </c>
+      <c r="D66">
+        <v>0.1122023006929667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002874878205720373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01533120645276846</v>
+      </c>
+      <c r="C67">
+        <v>-0.06623945382793721</v>
+      </c>
+      <c r="D67">
+        <v>0.02808940798929851</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007318659051878497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001142184082334009</v>
+      </c>
+      <c r="C68">
+        <v>-0.08554927414440093</v>
+      </c>
+      <c r="D68">
+        <v>-0.2628779372396388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002400430656083175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005993019019139269</v>
+      </c>
+      <c r="C69">
+        <v>-0.05056588637950703</v>
+      </c>
+      <c r="D69">
+        <v>0.0381293258993978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0001127644953147769</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001812793429221189</v>
+      </c>
+      <c r="C70">
+        <v>-0.003670699203328742</v>
+      </c>
+      <c r="D70">
+        <v>0.002384410450210494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001625903433446833</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005947438510843348</v>
+      </c>
+      <c r="C71">
+        <v>-0.09248610154078007</v>
+      </c>
+      <c r="D71">
+        <v>-0.3045450131078072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0058764673914144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01641254589553649</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529056520250938</v>
+      </c>
+      <c r="D72">
+        <v>0.01269629268790481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01577277455982912</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03157006204435115</v>
+      </c>
+      <c r="C73">
+        <v>-0.282906750670031</v>
+      </c>
+      <c r="D73">
+        <v>0.05802912234686388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007254001440713117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001995413792772583</v>
+      </c>
+      <c r="C74">
+        <v>-0.1032298845649637</v>
+      </c>
+      <c r="D74">
+        <v>0.03602234085723603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004535121723687154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01108506459724886</v>
+      </c>
+      <c r="C75">
+        <v>-0.1220592277676553</v>
+      </c>
+      <c r="D75">
+        <v>0.02217483339401277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005224119567960483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02250501794848931</v>
+      </c>
+      <c r="C76">
+        <v>-0.148676041824377</v>
+      </c>
+      <c r="D76">
+        <v>0.05446122341769818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002932235400349591</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02239763004068872</v>
+      </c>
+      <c r="C77">
+        <v>-0.1149669270327552</v>
+      </c>
+      <c r="D77">
+        <v>0.05895484304316073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.000231090440233723</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01502637493651428</v>
+      </c>
+      <c r="C78">
+        <v>-0.09653942673519757</v>
+      </c>
+      <c r="D78">
+        <v>0.07489985713607504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02118981919662645</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03809544919102406</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568894260061872</v>
+      </c>
+      <c r="D79">
+        <v>0.0315406060066241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005380425909719455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01017814662743565</v>
+      </c>
+      <c r="C80">
+        <v>-0.03991476506137933</v>
+      </c>
+      <c r="D80">
+        <v>0.03163013266675099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007539189486492583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0156449691140615</v>
+      </c>
+      <c r="C81">
+        <v>-0.1295104608638663</v>
+      </c>
+      <c r="D81">
+        <v>0.03778181446730657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002025361620423698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02004697077978236</v>
+      </c>
+      <c r="C82">
+        <v>-0.1389410705133068</v>
+      </c>
+      <c r="D82">
+        <v>0.0413924208852066</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006246239086162997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01051847415188739</v>
+      </c>
+      <c r="C83">
+        <v>-0.05879336205283343</v>
+      </c>
+      <c r="D83">
+        <v>0.04808791819427514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01258570977699537</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01154408302789858</v>
+      </c>
+      <c r="C84">
+        <v>-0.0369933280425733</v>
+      </c>
+      <c r="D84">
+        <v>-0.001914535505060252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01266338739652905</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02909398977023638</v>
+      </c>
+      <c r="C85">
+        <v>-0.1249943684864367</v>
+      </c>
+      <c r="D85">
+        <v>0.03944674979877903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002513377880806267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004725631641859446</v>
+      </c>
+      <c r="C86">
+        <v>-0.05017956805669964</v>
+      </c>
+      <c r="D86">
+        <v>0.03241929051261557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004152596946390376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01103810313507986</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287316710103528</v>
+      </c>
+      <c r="D87">
+        <v>0.07084262225439551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01147380474493628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002682986474242719</v>
+      </c>
+      <c r="C88">
+        <v>-0.06344684138305558</v>
+      </c>
+      <c r="D88">
+        <v>0.02385350507894097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01550983164327695</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001470280042824157</v>
+      </c>
+      <c r="C89">
+        <v>-0.1397012242683713</v>
+      </c>
+      <c r="D89">
+        <v>-0.3206060201052113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003857221386866476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006877643671488478</v>
+      </c>
+      <c r="C90">
+        <v>-0.1200513770013642</v>
+      </c>
+      <c r="D90">
+        <v>-0.3144390882739587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001804168404766642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01051669908689501</v>
+      </c>
+      <c r="C91">
+        <v>-0.1004890460199745</v>
+      </c>
+      <c r="D91">
+        <v>0.02247425047637905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01105047270799014</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001260038056747418</v>
+      </c>
+      <c r="C92">
+        <v>-0.1359716462814114</v>
+      </c>
+      <c r="D92">
+        <v>-0.3252585598208746</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002408124544707971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005325060918932963</v>
+      </c>
+      <c r="C93">
+        <v>-0.1052556057501844</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019944387020853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0001919712689050136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0220391276361102</v>
+      </c>
+      <c r="C94">
+        <v>-0.1455270042169565</v>
+      </c>
+      <c r="D94">
+        <v>0.04772244864717434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0035447411798086</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01673362129011965</v>
+      </c>
+      <c r="C95">
+        <v>-0.1221418469027906</v>
+      </c>
+      <c r="D95">
+        <v>0.06043838290484264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0009116866846506484</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03659457498648899</v>
+      </c>
+      <c r="C97">
+        <v>-0.2203458466336853</v>
+      </c>
+      <c r="D97">
+        <v>-0.005964428033420234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004197057630134481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03791088938964532</v>
+      </c>
+      <c r="C98">
+        <v>-0.2533780729448215</v>
+      </c>
+      <c r="D98">
+        <v>0.04309664020065213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.985262494103194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9814989204850642</v>
+      </c>
+      <c r="C99">
+        <v>0.1194072295945233</v>
+      </c>
+      <c r="D99">
+        <v>-0.02383191919984115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001250022208816282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002785357487447077</v>
+      </c>
+      <c r="C101">
+        <v>-0.04971445953073427</v>
+      </c>
+      <c r="D101">
+        <v>0.007021640509487779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
